--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4544055E-8752-440B-BF30-DDD3301A7A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2805C049-003A-49EC-AEB8-FBFAEC73F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8316" yWindow="960" windowWidth="14484" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="337">
   <si>
     <t>company</t>
   </si>
@@ -1028,6 +1028,9 @@
   </si>
   <si>
     <t>Media Meter (GMA Kamuning)</t>
+  </si>
+  <si>
+    <t>Init Interviewed</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1158,9 +1161,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1173,13 +1173,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1490,7 +1492,7 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,10 +2299,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2354,10 +2356,10 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
@@ -2714,7 +2716,7 @@
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>153</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -2731,7 +2733,7 @@
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2745,7 +2747,7 @@
       <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="16" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2759,7 +2761,7 @@
       <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2773,12 +2775,12 @@
       <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
+      <c r="A80" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2787,7 +2789,7 @@
       <c r="D80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2815,7 +2817,7 @@
       <c r="D82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="15" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2829,7 +2831,7 @@
       <c r="D83" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2899,7 +2901,7 @@
       <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="15" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2913,10 +2915,10 @@
       <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89">
         <v>9394791981</v>
       </c>
     </row>
@@ -2930,7 +2932,7 @@
       <c r="D90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2944,10 +2946,10 @@
       <c r="D91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G91" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91">
         <v>9270345867</v>
       </c>
     </row>
@@ -2961,10 +2963,10 @@
       <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G92" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92">
         <v>639923742220</v>
       </c>
     </row>
@@ -2992,7 +2994,7 @@
       <c r="D94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3006,7 +3008,7 @@
       <c r="D95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3020,7 +3022,7 @@
       <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3045,7 +3047,7 @@
       <c r="D98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="15" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3059,7 +3061,7 @@
       <c r="D99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3073,10 +3075,10 @@
       <c r="D100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G100" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100">
         <v>9695979091</v>
       </c>
     </row>
@@ -3090,7 +3092,7 @@
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" s="15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3104,7 +3106,7 @@
       <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G102" s="16" t="s">
+      <c r="G102" s="15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3118,7 +3120,7 @@
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G103" s="16" t="s">
+      <c r="G103" s="15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3132,7 +3134,7 @@
       <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G104" s="16" t="s">
+      <c r="G104" s="15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3776,10 +3778,10 @@
       <c r="E150" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H150" s="18" t="s">
+      <c r="H150" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3796,10 +3798,10 @@
       <c r="E151" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G151" s="16" t="s">
+      <c r="G151" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="H151" s="18">
+      <c r="H151">
         <v>9499601153</v>
       </c>
     </row>
@@ -3816,7 +3818,7 @@
       <c r="E152" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G152" s="16" t="s">
+      <c r="G152" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3833,10 +3835,10 @@
       <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G153" s="16" t="s">
+      <c r="G153" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="H153" s="18">
+      <c r="H153">
         <v>9155285209</v>
       </c>
     </row>
@@ -3853,10 +3855,10 @@
       <c r="E154" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="G154" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="H154" s="18">
+      <c r="H154">
         <v>9479868804</v>
       </c>
     </row>
@@ -3873,10 +3875,10 @@
       <c r="E155" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G155" s="16" t="s">
+      <c r="G155" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H155" s="18">
+      <c r="H155">
         <v>9393224106</v>
       </c>
     </row>
@@ -3893,10 +3895,10 @@
       <c r="E156" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="H156" s="18">
+      <c r="H156">
         <v>9164259033</v>
       </c>
     </row>
@@ -3913,10 +3915,10 @@
       <c r="E157" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G157" s="16" t="s">
+      <c r="G157" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H157" s="18">
+      <c r="H157">
         <v>9957467792</v>
       </c>
     </row>
@@ -4059,7 +4061,7 @@
       <c r="E167" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G167" s="15" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4076,10 +4078,10 @@
       <c r="E168" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G168" s="16" t="s">
+      <c r="G168" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="H168" s="19" t="s">
+      <c r="H168" s="17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4096,7 +4098,7 @@
       <c r="E169" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G169" s="16" t="s">
+      <c r="G169" s="15" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4113,7 +4115,7 @@
       <c r="E170" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G170" s="16" t="s">
+      <c r="G170" s="15" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4130,10 +4132,10 @@
       <c r="E171" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G171" s="16" t="s">
+      <c r="G171" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="H171" s="17" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4150,10 +4152,10 @@
       <c r="E172" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G172" s="16" t="s">
+      <c r="G172" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="H172" s="19">
+      <c r="H172" s="17">
         <v>9239962602</v>
       </c>
     </row>
@@ -4170,7 +4172,7 @@
       <c r="E173" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H173" s="19" t="s">
+      <c r="H173" s="17" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4187,12 +4189,12 @@
       <c r="E174" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G174" s="16" t="s">
+      <c r="G174" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="18" t="s">
+      <c r="A175" t="s">
         <v>295</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -4204,7 +4206,7 @@
       <c r="E175" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G175" s="16" t="s">
+      <c r="G175" s="15" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4221,7 +4223,7 @@
       <c r="E176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G176" s="16" t="s">
+      <c r="G176" s="15" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4238,7 +4240,7 @@
       <c r="E177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G177" s="16" t="s">
+      <c r="G177" s="15" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4255,7 +4257,7 @@
       <c r="E178" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G178" s="16" t="s">
+      <c r="G178" s="15" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4379,7 +4381,7 @@
         <v>310</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>269</v>
@@ -4512,21 +4514,21 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="12" t="s">
         <v>330</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="12" t="s">
         <v>331</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -4540,7 +4542,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="13" t="s">
         <v>332</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -4554,7 +4556,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -4568,7 +4570,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="12" t="s">
         <v>335</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -4582,19 +4584,27 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
+      <c r="A202" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
+      <c r="A204" s="12"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="15"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="12"/>
+      <c r="A206" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2805C049-003A-49EC-AEB8-FBFAEC73F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F670D-0708-42E6-B8E8-22E8EB7A19B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="960" windowWidth="14484" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="1428" windowWidth="21960" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="371">
   <si>
     <t>company</t>
   </si>
@@ -1018,9 +1018,6 @@
     <t>SID Global Solutions</t>
   </si>
   <si>
-    <t>Junior Data Analyst (Pasig)</t>
-  </si>
-  <si>
     <t>Junior Data Analyst</t>
   </si>
   <si>
@@ -1031,13 +1028,118 @@
   </si>
   <si>
     <t>Init Interviewed</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Dyna Drug Corporation (Pasig)</t>
+  </si>
+  <si>
+    <t>Magellan Solutions (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>JLL Business Services (Taguig)</t>
+  </si>
+  <si>
+    <t>Sandman Software Systems, Inc. (Quezon)</t>
+  </si>
+  <si>
+    <t>Medgrocer (Makati)</t>
+  </si>
+  <si>
+    <t>Stores Specialists (Makati)</t>
+  </si>
+  <si>
+    <t>Bounty Fresh Food, Inc. (Fort Bonifacio)</t>
+  </si>
+  <si>
+    <t>Agrifund Finance (Pasig)</t>
+  </si>
+  <si>
+    <t>Gavin Ventures (Taguig)</t>
+  </si>
+  <si>
+    <t>Linkage Foods Venture Corp. (Pasig)</t>
+  </si>
+  <si>
+    <t>EPS Staffing Service Group Inc. (Pasig)</t>
+  </si>
+  <si>
+    <t>ATOMIT Business Solutions Inc. (Pasig)</t>
+  </si>
+  <si>
+    <t>RepRisk Philippines Inc. (Taguig)</t>
+  </si>
+  <si>
+    <t>Teknovae Recruitment Search (Makati)</t>
+  </si>
+  <si>
+    <t>Proview Global Administration Inc. (Pasig)</t>
+  </si>
+  <si>
+    <t>GoConnect Philippines Inc. (Makati)</t>
+  </si>
+  <si>
+    <t>Akulaku Philippines (Pasig)</t>
+  </si>
+  <si>
+    <t>IT Managers Inc (Taguig)</t>
+  </si>
+  <si>
+    <t>MedRiskLLC (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Bigtime Empire Corporation (Ortigas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X </t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>ActivAsia (Pasig)</t>
+  </si>
+  <si>
+    <t>Netsolar (Ortigas)</t>
+  </si>
+  <si>
+    <t>Megaccess IT Solutions (Pasig)</t>
+  </si>
+  <si>
+    <t>Tic Toc Games Inc. (Pasig)</t>
+  </si>
+  <si>
+    <t>Hive Health (Pasig)</t>
+  </si>
+  <si>
+    <t>Bank of the Philippine Islands (Makati)</t>
+  </si>
+  <si>
+    <t>Credit Analyst</t>
+  </si>
+  <si>
+    <t>Credit Risk Analyst</t>
+  </si>
+  <si>
+    <t>Data Operations Analyst</t>
+  </si>
+  <si>
+    <t>Data Analyst (Credit Operations Analyst)</t>
+  </si>
+  <si>
+    <t>Junior MDI Analyst</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,14 +1169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0A66C2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -1096,14 +1190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1143,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1156,29 +1244,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1489,10 +1570,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,7 +1916,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="1"/>
@@ -2033,7 +2114,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2135,7 +2216,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2152,7 +2233,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2211,7 +2292,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2228,7 +2309,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2242,7 +2323,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2276,7 +2357,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2290,7 +2371,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2299,10 +2380,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2319,7 +2400,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2356,13 +2437,13 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="18"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2390,7 +2471,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2404,7 +2485,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2432,7 +2513,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2446,7 +2527,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2463,7 +2544,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2477,7 +2558,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2491,7 +2572,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2505,7 +2586,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2522,7 +2603,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2567,7 +2648,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2581,7 +2662,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2623,7 +2704,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2637,7 +2718,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2665,7 +2746,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2679,7 +2760,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2707,7 +2788,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2716,7 +2797,7 @@
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="13" t="s">
         <v>153</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -2724,7 +2805,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2733,7 +2814,7 @@
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2747,12 +2828,12 @@
       <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2761,12 +2842,12 @@
       <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2775,7 +2856,7 @@
       <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="13" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2789,7 +2870,7 @@
       <c r="D80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2808,7 +2889,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2817,7 +2898,7 @@
       <c r="D82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2831,12 +2912,12 @@
       <c r="D83" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2901,12 +2982,12 @@
       <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2915,7 +2996,7 @@
       <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="13" t="s">
         <v>172</v>
       </c>
       <c r="H89">
@@ -2923,7 +3004,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2932,7 +3013,7 @@
       <c r="D90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2946,7 +3027,7 @@
       <c r="D91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H91">
@@ -2963,7 +3044,7 @@
       <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="13" t="s">
         <v>179</v>
       </c>
       <c r="H92">
@@ -2980,7 +3061,7 @@
       <c r="D93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2994,7 +3075,7 @@
       <c r="D94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3008,12 +3089,12 @@
       <c r="D95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3022,12 +3103,12 @@
       <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="G96" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3038,7 +3119,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3047,12 +3128,12 @@
       <c r="D98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3061,7 +3142,7 @@
       <c r="D99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3075,7 +3156,7 @@
       <c r="D100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="13" t="s">
         <v>191</v>
       </c>
       <c r="H100">
@@ -3092,7 +3173,7 @@
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3106,12 +3187,12 @@
       <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3120,12 +3201,12 @@
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3134,12 +3215,12 @@
       <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3318,7 +3399,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3461,7 +3542,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3475,7 +3556,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3559,7 +3640,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -3587,7 +3668,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3598,7 +3679,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3607,12 +3688,12 @@
       <c r="D138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G138" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -3626,7 +3707,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -3668,7 +3749,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -3682,7 +3763,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -3710,7 +3791,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -3766,7 +3847,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -3778,7 +3859,7 @@
       <c r="E150" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G150" s="15" t="s">
+      <c r="G150" s="13" t="s">
         <v>254</v>
       </c>
       <c r="H150" t="s">
@@ -3798,7 +3879,7 @@
       <c r="E151" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G151" s="15" t="s">
+      <c r="G151" s="13" t="s">
         <v>256</v>
       </c>
       <c r="H151">
@@ -3806,7 +3887,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -3818,12 +3899,12 @@
       <c r="E152" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G152" s="15" t="s">
+      <c r="G152" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -3835,7 +3916,7 @@
       <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G153" s="15" t="s">
+      <c r="G153" s="13" t="s">
         <v>259</v>
       </c>
       <c r="H153">
@@ -3843,7 +3924,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -3855,7 +3936,7 @@
       <c r="E154" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G154" s="15" t="s">
+      <c r="G154" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H154">
@@ -3863,7 +3944,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -3875,7 +3956,7 @@
       <c r="E155" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="G155" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H155">
@@ -3883,7 +3964,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -3895,7 +3976,7 @@
       <c r="E156" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G156" s="15" t="s">
+      <c r="G156" s="13" t="s">
         <v>263</v>
       </c>
       <c r="H156">
@@ -3903,7 +3984,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -3915,7 +3996,7 @@
       <c r="E157" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G157" s="15" t="s">
+      <c r="G157" s="13" t="s">
         <v>266</v>
       </c>
       <c r="H157">
@@ -3951,7 +4032,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4049,7 +4130,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -4061,7 +4142,7 @@
       <c r="E167" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G167" s="15" t="s">
+      <c r="G167" s="13" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4078,15 +4159,15 @@
       <c r="E168" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G168" s="15" t="s">
+      <c r="G168" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H168" s="17" t="s">
+      <c r="H168" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -4098,12 +4179,12 @@
       <c r="E169" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G169" s="15" t="s">
+      <c r="G169" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -4115,12 +4196,12 @@
       <c r="E170" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G170" s="15" t="s">
+      <c r="G170" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="9" t="s">
         <v>288</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -4132,10 +4213,10 @@
       <c r="E171" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G171" s="15" t="s">
+      <c r="G171" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H171" s="17" t="s">
+      <c r="H171" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4152,10 +4233,10 @@
       <c r="E172" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G172" s="15" t="s">
+      <c r="G172" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H172" s="17">
+      <c r="H172" s="12">
         <v>9239962602</v>
       </c>
     </row>
@@ -4172,12 +4253,12 @@
       <c r="E173" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H173" s="17" t="s">
+      <c r="H173" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -4189,7 +4270,7 @@
       <c r="E174" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G174" s="15" t="s">
+      <c r="G174" s="13" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4206,7 +4287,7 @@
       <c r="E175" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G175" s="15" t="s">
+      <c r="G175" s="13" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4223,12 +4304,12 @@
       <c r="E176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G176" s="15" t="s">
+      <c r="G176" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4240,7 +4321,7 @@
       <c r="E177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G177" s="15" t="s">
+      <c r="G177" s="13" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4257,12 +4338,12 @@
       <c r="E178" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G178" s="15" t="s">
+      <c r="G178" s="13" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -4276,7 +4357,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -4457,7 +4538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>169</v>
       </c>
@@ -4471,7 +4552,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>323</v>
       </c>
@@ -4485,7 +4566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>324</v>
       </c>
@@ -4499,7 +4580,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>55</v>
       </c>
@@ -4513,8 +4594,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="12" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -4527,8 +4608,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="12" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -4541,12 +4622,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="13" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>11</v>
@@ -4555,12 +4636,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="12" t="s">
-        <v>334</v>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>11</v>
@@ -4569,12 +4650,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="12" t="s">
-        <v>335</v>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>11</v>
@@ -4583,28 +4664,309 @@
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="11"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="12"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="14"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="11"/>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H203" s="2">
+        <v>9669602597</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F670D-0708-42E6-B8E8-22E8EB7A19B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0C84D-A452-4EB2-BED9-8BAA386463BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="1428" windowWidth="21960" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="852" windowWidth="21960" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="372">
   <si>
     <t>company</t>
   </si>
@@ -1096,9 +1096,6 @@
     <t xml:space="preserve">2X </t>
   </si>
   <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
     <t>ActivAsia (Pasig)</t>
   </si>
   <si>
@@ -1133,6 +1130,12 @@
   </si>
   <si>
     <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Nasdaq (BGC Taguig, pag maaga ka talaga sa LI mas may email sayo)</t>
+  </si>
+  <si>
+    <t>Ivanhoe.Kalaw@nasdaq.com</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4702,6 +4705,9 @@
       <c r="C204" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
@@ -4710,6 +4716,9 @@
       <c r="C205" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
@@ -4718,6 +4727,9 @@
       <c r="C206" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
@@ -4726,6 +4738,9 @@
       <c r="C207" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
@@ -4734,238 +4749,352 @@
       <c r="C208" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+      <c r="D224" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+      <c r="C225" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+      <c r="C226" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0C84D-A452-4EB2-BED9-8BAA386463BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDFCF1A-CD9B-4653-86B1-75635795CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="852" windowWidth="21960" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="374">
   <si>
     <t>company</t>
   </si>
@@ -1136,6 +1136,12 @@
   </si>
   <si>
     <t>Ivanhoe.Kalaw@nasdaq.com</t>
+  </si>
+  <si>
+    <t>Passed Tech Interview &amp; Declined</t>
+  </si>
+  <si>
+    <t>Tech Interviewed</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4882,7 +4888,7 @@
         <v>70</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -4915,7 +4921,7 @@
         <v>366</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>371</v>
@@ -5006,7 +5012,7 @@
         <v>70</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,7 +5023,7 @@
         <v>70</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,7 +5034,7 @@
         <v>70</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,6 +5100,17 @@
         <v>70</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDFCF1A-CD9B-4653-86B1-75635795CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1782D-FC5B-46D7-A2C8-5F4499FC538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="375">
   <si>
     <t>company</t>
   </si>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>Tech Interviewed</t>
+  </si>
+  <si>
+    <t>Adaca</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1582,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5112,6 +5115,17 @@
       </c>
       <c r="D240" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1782D-FC5B-46D7-A2C8-5F4499FC538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAF553-4F93-4B29-922E-E5B6B3A49C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="378">
   <si>
     <t>company</t>
   </si>
@@ -1145,6 +1145,15 @@
   </si>
   <si>
     <t>Adaca</t>
+  </si>
+  <si>
+    <t>Tech Assessment</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>Sustainability Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1591,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5114,10 +5123,10 @@
         <v>70</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>374</v>
       </c>
@@ -5125,7 +5134,21 @@
         <v>70</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAF553-4F93-4B29-922E-E5B6B3A49C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A7D89-DAED-4145-BC04-5F68313A3BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="386">
   <si>
     <t>company</t>
   </si>
@@ -1154,6 +1154,30 @@
   </si>
   <si>
     <t>Sustainability Data Analyst</t>
+  </si>
+  <si>
+    <t>Focus Global Talent (BGC)</t>
+  </si>
+  <si>
+    <t>Data Engineer Intern</t>
+  </si>
+  <si>
+    <t>Mortgage Pros</t>
+  </si>
+  <si>
+    <t>Mortgage Analyst</t>
+  </si>
+  <si>
+    <t>Accenture (Taguig)</t>
+  </si>
+  <si>
+    <t>Meralco</t>
+  </si>
+  <si>
+    <t>Data Reporting Associate</t>
+  </si>
+  <si>
+    <t>Tech Select Graduate Program</t>
   </si>
 </sst>
 </file>
@@ -1591,10 +1615,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E243" sqref="E243"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,6 +5172,76 @@
         <v>11</v>
       </c>
       <c r="E242" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>121</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A7D89-DAED-4145-BC04-5F68313A3BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316B198-EEC7-43EC-9103-414C12B9AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="387">
   <si>
     <t>company</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>Tech Select Graduate Program</t>
+  </si>
+  <si>
+    <t>Xpress (Kapitolyo)</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1618,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E248" sqref="E248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5243,6 +5246,20 @@
       </c>
       <c r="E247" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316B198-EEC7-43EC-9103-414C12B9AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CDB45-75FF-4C83-AF5D-8B924389E1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="388">
   <si>
     <t>company</t>
   </si>
@@ -1181,6 +1182,9 @@
   </si>
   <si>
     <t>Xpress (Kapitolyo)</t>
+  </si>
+  <si>
+    <t>PJ Lhuillier Group of Companies</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5260,6 +5264,20 @@
       </c>
       <c r="E248" s="2" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CDB45-75FF-4C83-AF5D-8B924389E1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A8685-E2E0-4572-BB87-1B59307BBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="392">
   <si>
     <t>company</t>
   </si>
@@ -1185,6 +1184,18 @@
   </si>
   <si>
     <t>PJ Lhuillier Group of Companies</t>
+  </si>
+  <si>
+    <t>IT Analyst</t>
+  </si>
+  <si>
+    <t>LimePay</t>
+  </si>
+  <si>
+    <t>Product Analyst</t>
+  </si>
+  <si>
+    <t>TLScontact</t>
   </si>
 </sst>
 </file>
@@ -1622,10 +1633,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,6 +5289,48 @@
       </c>
       <c r="E249" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A8685-E2E0-4572-BB87-1B59307BBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB782781-FD54-4C42-AC67-7ED2CBDA2F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="408">
   <si>
     <t>company</t>
   </si>
@@ -1196,6 +1196,54 @@
   </si>
   <si>
     <t>TLScontact</t>
+  </si>
+  <si>
+    <t>Job Board</t>
+  </si>
+  <si>
+    <t>IT Analyst II Business Systems</t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>Business Data Analyst</t>
+  </si>
+  <si>
+    <t>Lead Advisors (Quezon)</t>
+  </si>
+  <si>
+    <t>Summit Media (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Data Analytics Ventures, Inc. (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Business Intelligence Analyst</t>
+  </si>
+  <si>
+    <t>Publicis Groupe (Makati)</t>
+  </si>
+  <si>
+    <t>Data Intelligence Analyst</t>
+  </si>
+  <si>
+    <t>Monee (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Data Analytics Specialist</t>
+  </si>
+  <si>
+    <t>RCBC (Taguig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analyst </t>
+  </si>
+  <si>
+    <t>Dexian</t>
+  </si>
+  <si>
+    <t>Shopee</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1327,6 +1381,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1633,10 +1688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5330,6 +5385,202 @@
         <v>11</v>
       </c>
       <c r="E252" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>121</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB782781-FD54-4C42-AC67-7ED2CBDA2F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D22DD-CA94-4728-8D99-4CEAE4EC0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="420">
   <si>
     <t>company</t>
   </si>
@@ -1244,6 +1244,42 @@
   </si>
   <si>
     <t>Shopee</t>
+  </si>
+  <si>
+    <t>GeoData Systems</t>
+  </si>
+  <si>
+    <t>Gardenai</t>
+  </si>
+  <si>
+    <t>Melo Outsourcing (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Workforce Analyst</t>
+  </si>
+  <si>
+    <t>Digital Data Analyst</t>
+  </si>
+  <si>
+    <t>Nextrade Philippines, Inc. (Fort Bonifacio)</t>
+  </si>
+  <si>
+    <t>Universal Access and Systems Solutions, Inc. (Pasig)</t>
+  </si>
+  <si>
+    <t>eBizSolution Inc. (Makati)</t>
+  </si>
+  <si>
+    <t>Gobo Creative Inc. (Makati)</t>
+  </si>
+  <si>
+    <t>Ecom Data Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Tech Smart Solution </t>
+  </si>
+  <si>
+    <t>Maxicare</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1414,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1688,10 +1724,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,10 +2534,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2555,10 +2591,10 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
@@ -5417,7 +5453,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="16" t="s">
+      <c r="A255" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -5582,6 +5618,160 @@
       </c>
       <c r="E266" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D22DD-CA94-4728-8D99-4CEAE4EC0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8200507-FC42-4DC0-9CB9-88F3D86BD42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="437">
   <si>
     <t>company</t>
   </si>
@@ -1280,6 +1280,57 @@
   </si>
   <si>
     <t>Maxicare</t>
+  </si>
+  <si>
+    <t>Bluesky HR Consultancy, Inc.</t>
+  </si>
+  <si>
+    <t>Cyberbacker</t>
+  </si>
+  <si>
+    <t>Avia Solutions Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demopower </t>
+  </si>
+  <si>
+    <t>Cepat Kredit Financing Inc</t>
+  </si>
+  <si>
+    <t>Propel Manila</t>
+  </si>
+  <si>
+    <t>SariSuki (San Juan)</t>
+  </si>
+  <si>
+    <t>WNS (Quezon)</t>
+  </si>
+  <si>
+    <t>Ekremis (Makati)</t>
+  </si>
+  <si>
+    <t>GameOps Inc. (Ortigas)</t>
+  </si>
+  <si>
+    <t>Mapua University (Intramuros)</t>
+  </si>
+  <si>
+    <t>Revery Digital Technologies, Inc. (Makati)</t>
+  </si>
+  <si>
+    <t>Philippine british assurance company (Makati)</t>
+  </si>
+  <si>
+    <t>J-K Network Manpower Services (Makati)</t>
+  </si>
+  <si>
+    <t>Joules to Watts Business Solutions</t>
+  </si>
+  <si>
+    <t>Rising Tide Digital Inc.</t>
+  </si>
+  <si>
+    <t>Propelrr</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1775,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E278" sqref="E278"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5771,6 +5822,286 @@
         <v>11</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5824,8 +6155,9 @@
     <hyperlink ref="G176" r:id="rId42" display="mailto:gabrieljannatricia@gmail.com" xr:uid="{D28F0502-1BFE-495F-9F24-2D80A162CCA5}"/>
     <hyperlink ref="G177" r:id="rId43" display="mailto:emacupang@gmail.com" xr:uid="{2ED56E74-9E8B-4C1F-80CF-B2224CF02624}"/>
     <hyperlink ref="G178" r:id="rId44" display="mailto:engelbert.acefortin@gmail.com" xr:uid="{25F2B952-2A6A-40BD-89B1-951CDCA3955D}"/>
+    <hyperlink ref="A283" r:id="rId45" display="https://www.linkedin.com/company/cepatkreditfinancinginc/life" xr:uid="{C0ADB27E-2A05-4E5E-85C3-E0CE05D03424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId45"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8200507-FC42-4DC0-9CB9-88F3D86BD42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5847F6-C4F9-4C78-A61B-A17E43DED5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="441">
   <si>
     <t>company</t>
   </si>
@@ -1331,6 +1331,18 @@
   </si>
   <si>
     <t>Propelrr</t>
+  </si>
+  <si>
+    <t>Dempsey Resource Management (pasig</t>
+  </si>
+  <si>
+    <t>Global Dominion Financing,Inc.</t>
+  </si>
+  <si>
+    <t>Tech One Global Phils (Alabang)</t>
+  </si>
+  <si>
+    <t>Isentia (Ortigas)</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1787,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5523,7 @@
         <v>369</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>392</v>
@@ -6102,6 +6114,90 @@
         <v>11</v>
       </c>
       <c r="E297" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>269</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5847F6-C4F9-4C78-A61B-A17E43DED5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABB561-E7C2-4C09-A5E4-6BEDC083D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="475">
   <si>
     <t>company</t>
   </si>
@@ -1343,6 +1343,108 @@
   </si>
   <si>
     <t>Isentia (Ortigas)</t>
+  </si>
+  <si>
+    <t>Glass Lewis &amp; CO LLC (Makati)</t>
+  </si>
+  <si>
+    <t>Flowerstore.ph (Makati)</t>
+  </si>
+  <si>
+    <t>Junior Analyst, Climate</t>
+  </si>
+  <si>
+    <t>Kooapps Philippines Corporation (Makati)</t>
+  </si>
+  <si>
+    <t>Marketing Analyst</t>
+  </si>
+  <si>
+    <t>Junior Data Analyst - Governance Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Engineer </t>
+  </si>
+  <si>
+    <t>Data Engineer [ETL | Python | SQL]</t>
+  </si>
+  <si>
+    <t>DigiPlus Interactive Corp</t>
+  </si>
+  <si>
+    <t>Stratworks</t>
+  </si>
+  <si>
+    <t>InvestEd (Makati)</t>
+  </si>
+  <si>
+    <t>Unionbank (Pasig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philtech Inc. </t>
+  </si>
+  <si>
+    <t>Marketting Allocation Analyst</t>
+  </si>
+  <si>
+    <t>Smadex</t>
+  </si>
+  <si>
+    <t>DXC Techonologies</t>
+  </si>
+  <si>
+    <t>Business Operations Analyst</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Engineer</t>
+  </si>
+  <si>
+    <t>China Bank PH</t>
+  </si>
+  <si>
+    <t>Information Analyst</t>
+  </si>
+  <si>
+    <t>Data Scientist - Web Analytics and Audience Insight</t>
+  </si>
+  <si>
+    <t>Rappler</t>
+  </si>
+  <si>
+    <t>Arch Global Services</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist</t>
+  </si>
+  <si>
+    <t>ORIX Metro</t>
+  </si>
+  <si>
+    <t>Analytics Engineer</t>
+  </si>
+  <si>
+    <t>Import Genius</t>
+  </si>
+  <si>
+    <t>Mid Data Scientist</t>
+  </si>
+  <si>
+    <t>Zalamea Business Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Ifelse Ph Inc. (Makati)</t>
+  </si>
+  <si>
+    <t>Earth Home Care Products Philippines, Inc. (Manila)</t>
+  </si>
+  <si>
+    <t>S.P. Madrid Associates (Paranaque)</t>
+  </si>
+  <si>
+    <t>Micro Pinnacle Techonology Corporation (Makati)</t>
+  </si>
+  <si>
+    <t>Associate Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -1787,10 +1889,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D325" sqref="D325:E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6198,6 +6300,398 @@
         <v>11</v>
       </c>
       <c r="E303" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>269</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABB561-E7C2-4C09-A5E4-6BEDC083D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C3E3FE-0F07-4B5C-A2A6-028E07B9E470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="496">
   <si>
     <t>company</t>
   </si>
@@ -1445,6 +1456,69 @@
   </si>
   <si>
     <t>Associate Data Analyst</t>
+  </si>
+  <si>
+    <t>Z-lift zolutions (Remote)</t>
+  </si>
+  <si>
+    <t>Contacted via recruiter</t>
+  </si>
+  <si>
+    <t>Source Fit</t>
+  </si>
+  <si>
+    <t>Inquiro Inc.</t>
+  </si>
+  <si>
+    <t>Research Analyst (Data entry)</t>
+  </si>
+  <si>
+    <t>Management Information Associate (Data Analytics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactSet Philipppines Inc. </t>
+  </si>
+  <si>
+    <t>Software Engineer III (ETL)</t>
+  </si>
+  <si>
+    <t>Web Scraping Engineer (Data Engineer)</t>
+  </si>
+  <si>
+    <t>Connext</t>
+  </si>
+  <si>
+    <t>Partner Hero (Manila)</t>
+  </si>
+  <si>
+    <t>SeaBank Philippines Inc. (Mandaluyong)</t>
+  </si>
+  <si>
+    <t>Jr. Data Analyst</t>
+  </si>
+  <si>
+    <t>Business Intelligence Associate</t>
+  </si>
+  <si>
+    <t>Thomson Reuters (Mandaluyong)\</t>
+  </si>
+  <si>
+    <t>Webcast Technologies (Quezon)</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>Hilti</t>
+  </si>
+  <si>
+    <t>HR Corp</t>
+  </si>
+  <si>
+    <t>Data Scientist Analyst</t>
+  </si>
+  <si>
+    <t>Applications</t>
   </si>
 </sst>
 </file>
@@ -1889,10 +1963,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:J348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D325" sqref="D325:E331"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,7 +1982,7 @@
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1933,8 +2007,11 @@
       <c r="H1" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1951,8 +2028,12 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="2">
+        <f>ROWS(A199:A347)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +2067,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2101,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2117,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2090,7 +2171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,7 +2225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +2243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -6693,6 +6774,241 @@
       </c>
       <c r="E331" s="2" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C3E3FE-0F07-4B5C-A2A6-028E07B9E470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73877453-B870-4905-970F-20980FC5FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$350:$A$368</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="520">
   <si>
     <t>company</t>
   </si>
@@ -1519,6 +1522,78 @@
   </si>
   <si>
     <t>Applications</t>
+  </si>
+  <si>
+    <t>Colliers</t>
+  </si>
+  <si>
+    <t>MSCI Hong Kong Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainability Data Operations Analyst </t>
+  </si>
+  <si>
+    <t>FactSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Analyst </t>
+  </si>
+  <si>
+    <t>CEIC Data Company Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;A Data Researcher - Analyst </t>
+  </si>
+  <si>
+    <t>Unioil Petroleum Philippines, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail Data Analyst </t>
+  </si>
+  <si>
+    <t>NTT LIMITED PHILIPPINES BRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA GAMING ANALYST </t>
+  </si>
+  <si>
+    <t>The Philippine Stock Exchange, Inc. (PSE)</t>
+  </si>
+  <si>
+    <t>Junior Business Analyst</t>
+  </si>
+  <si>
+    <t>Home Credit Philippines</t>
+  </si>
+  <si>
+    <t>Data Analyst (Open to Fresh Grads)</t>
+  </si>
+  <si>
+    <t>TREND MICRO INCORPORATED-PHILIPPINE BRANCH</t>
+  </si>
+  <si>
+    <t>R0007433: Cyber Threat Defense Engineer (Entry Level)</t>
+  </si>
+  <si>
+    <t>Datamatics</t>
+  </si>
+  <si>
+    <t>Fresh Graduate Career Opportunities – IT, Cybersecurity &amp; Business Tracks</t>
+  </si>
+  <si>
+    <t>Bounty Fresh Food, Inc.</t>
+  </si>
+  <si>
+    <t>Junior Business Analyst (Fresh Graduate)</t>
+  </si>
+  <si>
+    <t>Anaplan Model Builder</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Supply Chain Analyst</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +2038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J348"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6777,7 +6852,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="15" t="s">
         <v>475</v>
       </c>
       <c r="C332" s="2" t="s">
@@ -7009,6 +7084,190 @@
       </c>
       <c r="E348" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73877453-B870-4905-970F-20980FC5FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5BE85-912F-4B95-9D7E-C9DAA72B32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="530">
   <si>
     <t>company</t>
   </si>
@@ -1594,6 +1594,36 @@
   </si>
   <si>
     <t>Supply Chain Analyst</t>
+  </si>
+  <si>
+    <t>Intelligent Resourcing</t>
+  </si>
+  <si>
+    <t>P&amp;G</t>
+  </si>
+  <si>
+    <t>LSERV Corporation</t>
+  </si>
+  <si>
+    <t>Internship Program</t>
+  </si>
+  <si>
+    <t>Retail Tech Intern</t>
+  </si>
+  <si>
+    <t>Software Engineer (Data Analytics)</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer (Supply Chain IT Operations)</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>Information Technology Internship</t>
+  </si>
+  <si>
+    <t>CRM Insights Specialist</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2068,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J362"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A345" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+      <selection activeCell="C374" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7268,6 +7298,91 @@
       </c>
       <c r="C362" s="2" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5BE85-912F-4B95-9D7E-C9DAA72B32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0849D5-65DE-47AD-A5A6-70509686576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="539">
   <si>
     <t>company</t>
   </si>
@@ -1624,6 +1624,33 @@
   </si>
   <si>
     <t>CRM Insights Specialist</t>
+  </si>
+  <si>
+    <t>IBM (Eastwood)</t>
+  </si>
+  <si>
+    <t>Acquire BPO</t>
+  </si>
+  <si>
+    <t>Premiere BPO</t>
+  </si>
+  <si>
+    <t>IT Intern</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist Apprentice</t>
+  </si>
+  <si>
+    <t>Relx</t>
+  </si>
+  <si>
+    <t>Scheider Electric</t>
+  </si>
+  <si>
+    <t>Financial Data Analyst</t>
+  </si>
+  <si>
+    <t>Data ANalyst</t>
   </si>
 </sst>
 </file>
@@ -2068,26 +2095,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J373"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C374" sqref="C374"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2145,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2134,11 +2163,11 @@
         <v>9</v>
       </c>
       <c r="J2" s="2">
-        <f>ROWS(A199:A347)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f>ROWS(A199:A381)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2201,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2235,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2251,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2258,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2276,7 +2305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,7 +2323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2312,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2330,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2402,7 +2431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -2420,7 +2449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -2438,7 +2467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2456,7 +2485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -2474,7 +2503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2510,7 +2539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2528,7 +2557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2546,7 +2575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2564,7 +2593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2600,7 +2629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -2618,7 +2647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
@@ -2638,7 +2667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2658,7 +2687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2675,7 +2704,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -2706,7 +2735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>87</v>
       </c>
@@ -2737,7 +2766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
@@ -2754,7 +2783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -2768,7 +2797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2782,7 +2811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
@@ -2796,7 +2825,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>96</v>
       </c>
@@ -2813,7 +2842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>98</v>
       </c>
@@ -2827,7 +2856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>99</v>
       </c>
@@ -2844,7 +2873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +2890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
@@ -7291,6 +7320,12 @@
       <c r="C361" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="D361" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
@@ -7299,6 +7334,12 @@
       <c r="C362" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="D362" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
@@ -7307,6 +7348,12 @@
       <c r="C363" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
@@ -7315,6 +7362,12 @@
       <c r="C364" s="2" t="s">
         <v>523</v>
       </c>
+      <c r="D364" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
@@ -7323,6 +7376,12 @@
       <c r="C365" s="2" t="s">
         <v>524</v>
       </c>
+      <c r="D365" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
@@ -7331,11 +7390,23 @@
       <c r="C366" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="D366" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>456</v>
       </c>
+      <c r="D367" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
@@ -7344,45 +7415,221 @@
       <c r="C368" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D368" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D369" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D370" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>522</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D371" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D372" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>529</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0849D5-65DE-47AD-A5A6-70509686576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A5C5D-35C2-418C-BADF-609E4F27CFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2097,8 +2097,8 @@
   </sheetPr>
   <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6929,7 +6929,7 @@
         <v>67</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>476</v>
+        <v>373</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>121</v>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A5C5D-35C2-418C-BADF-609E4F27CFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7E23C-59DF-4B58-84A8-D9DBCB73A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="540">
   <si>
     <t>company</t>
   </si>
@@ -1651,6 +1651,9 @@
   </si>
   <si>
     <t>Data ANalyst</t>
+  </si>
+  <si>
+    <t>Phone Screening</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,6 +1734,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1789,6 +1798,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2097,8 +2107,8 @@
   </sheetPr>
   <dimension ref="A1:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6127,14 +6137,14 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>11</v>
+        <v>539</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>269</v>
@@ -6393,14 +6403,14 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>11</v>
+        <v>539</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>269</v>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7E23C-59DF-4B58-84A8-D9DBCB73A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DEA06-9C8F-4EDD-9C38-376DD5F147BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="543">
   <si>
     <t>company</t>
   </si>
@@ -1654,6 +1654,15 @@
   </si>
   <si>
     <t>Phone Screening</t>
+  </si>
+  <si>
+    <t>Bank of Commerce</t>
+  </si>
+  <si>
+    <t>JWAYGROUP</t>
+  </si>
+  <si>
+    <t>Atram Group</t>
   </si>
 </sst>
 </file>
@@ -1795,10 +1804,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2105,10 +2114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A387" sqref="A387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,10 +2933,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2981,10 +2990,10 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="16"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
@@ -6137,7 +6146,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="17" t="s">
+      <c r="A276" s="16" t="s">
         <v>418</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -6403,7 +6412,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="17" t="s">
+      <c r="A295" s="16" t="s">
         <v>418</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -7639,6 +7648,48 @@
         <v>11</v>
       </c>
       <c r="E383" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E386" s="2" t="s">
         <v>121</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DEA06-9C8F-4EDD-9C38-376DD5F147BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F49B2-54DB-498F-A3CB-4DD69EC221A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="556">
   <si>
     <t>company</t>
   </si>
@@ -1663,13 +1663,52 @@
   </si>
   <si>
     <t>Atram Group</t>
+  </si>
+  <si>
+    <t>PCDSI</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>DEP anon company</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Shecaina</t>
+  </si>
+  <si>
+    <t>Flord</t>
+  </si>
+  <si>
+    <t>Michael Page (pasig)</t>
+  </si>
+  <si>
+    <t>Monroe Consulting</t>
+  </si>
+  <si>
+    <t>Azure Data Engineer</t>
+  </si>
+  <si>
+    <t>mikko.perez@monroeconsulting.com.ph</t>
+  </si>
+  <si>
+    <t>Universal Robina Corporation</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>Creathink Solutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,41 +1726,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0A66C2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2D2D2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1773,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,28 +1787,20 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2114,10 +2110,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,7 +2266,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2469,7 +2465,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="1"/>
@@ -2667,7 +2663,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2769,7 +2765,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2786,7 +2782,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2845,7 +2841,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2862,7 +2858,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2876,7 +2872,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2910,7 +2906,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2924,7 +2920,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2933,10 +2929,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2953,7 +2949,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2990,13 +2986,13 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3024,7 +3020,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3038,7 +3034,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3066,7 +3062,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3080,7 +3076,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3097,7 +3093,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3111,7 +3107,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3125,7 +3121,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3139,7 +3135,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3156,7 +3152,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3201,7 +3197,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3215,7 +3211,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3257,7 +3253,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3271,7 +3267,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3299,7 +3295,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3313,7 +3309,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3341,7 +3337,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3350,7 +3346,7 @@
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3358,7 +3354,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3367,7 +3363,7 @@
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3381,12 +3377,12 @@
       <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3395,12 +3391,12 @@
       <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3409,12 +3405,12 @@
       <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3423,7 +3419,7 @@
       <c r="D80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3437,12 +3433,12 @@
       <c r="D81" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3451,7 +3447,7 @@
       <c r="D82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3465,12 +3461,12 @@
       <c r="D83" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3535,12 +3531,12 @@
       <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3549,15 +3545,15 @@
       <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>9394791981</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3566,7 +3562,7 @@
       <c r="D90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3580,10 +3576,10 @@
       <c r="D91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>9270345867</v>
       </c>
     </row>
@@ -3597,10 +3593,10 @@
       <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>639923742220</v>
       </c>
     </row>
@@ -3614,7 +3610,7 @@
       <c r="D93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3628,7 +3624,7 @@
       <c r="D94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3642,12 +3638,12 @@
       <c r="D95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G95" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3656,12 +3652,12 @@
       <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G96" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3672,7 +3668,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3681,12 +3677,12 @@
       <c r="D98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3695,7 +3691,7 @@
       <c r="D99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="G99" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3709,10 +3705,10 @@
       <c r="D100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>9695979091</v>
       </c>
     </row>
@@ -3726,7 +3722,7 @@
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3740,12 +3736,12 @@
       <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3754,12 +3750,12 @@
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G103" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3768,12 +3764,12 @@
       <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G104" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3952,7 +3948,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4095,7 +4091,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -4109,7 +4105,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -4193,7 +4189,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -4221,7 +4217,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -4232,7 +4228,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -4241,12 +4237,12 @@
       <c r="D138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="G138" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -4260,7 +4256,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4302,7 +4298,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -4316,7 +4312,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -4344,7 +4340,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -4400,7 +4396,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4412,10 +4408,10 @@
       <c r="E150" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G150" s="13" t="s">
+      <c r="G150" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4432,15 +4428,15 @@
       <c r="E151" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G151" s="13" t="s">
+      <c r="G151" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="2">
         <v>9499601153</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4452,12 +4448,12 @@
       <c r="E152" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G152" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -4469,15 +4465,15 @@
       <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G153" s="13" t="s">
+      <c r="G153" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="2">
         <v>9155285209</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4489,15 +4485,15 @@
       <c r="E154" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="2">
         <v>9479868804</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4509,15 +4505,15 @@
       <c r="E155" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G155" s="13" t="s">
+      <c r="G155" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="2">
         <v>9393224106</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -4529,15 +4525,15 @@
       <c r="E156" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="G156" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="2">
         <v>9164259033</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4549,10 +4545,10 @@
       <c r="E157" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G157" s="13" t="s">
+      <c r="G157" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="2">
         <v>9957467792</v>
       </c>
     </row>
@@ -4585,7 +4581,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4683,7 +4679,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -4695,7 +4691,7 @@
       <c r="E167" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G167" s="13" t="s">
+      <c r="G167" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4712,15 +4708,15 @@
       <c r="E168" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G168" s="13" t="s">
+      <c r="G168" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H168" s="12" t="s">
+      <c r="H168" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -4732,12 +4728,12 @@
       <c r="E169" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -4749,12 +4745,12 @@
       <c r="E170" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G170" s="13" t="s">
+      <c r="G170" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -4766,10 +4762,10 @@
       <c r="E171" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G171" s="13" t="s">
+      <c r="G171" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H171" s="12" t="s">
+      <c r="H171" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4786,10 +4782,10 @@
       <c r="E172" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G172" s="13" t="s">
+      <c r="G172" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H172" s="12">
+      <c r="H172" s="10">
         <v>9239962602</v>
       </c>
     </row>
@@ -4806,12 +4802,12 @@
       <c r="E173" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H173" s="12" t="s">
+      <c r="H173" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -4823,12 +4819,12 @@
       <c r="E174" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G174" s="13" t="s">
+      <c r="G174" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -4840,7 +4836,7 @@
       <c r="E175" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="G175" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4857,12 +4853,12 @@
       <c r="E176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G176" s="13" t="s">
+      <c r="G176" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4874,7 +4870,7 @@
       <c r="E177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G177" s="13" t="s">
+      <c r="G177" s="4" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4891,12 +4887,12 @@
       <c r="E178" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G178" s="13" t="s">
+      <c r="G178" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -4910,7 +4906,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -5148,7 +5144,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="5" t="s">
         <v>330</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -5162,7 +5158,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="5" t="s">
         <v>331</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -5176,7 +5172,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="6" t="s">
         <v>337</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -5190,7 +5186,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="5" t="s">
         <v>333</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -5204,7 +5200,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -5218,7 +5214,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -5232,7 +5228,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="5" t="s">
         <v>338</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -5249,7 +5245,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="5" t="s">
         <v>339</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -5260,7 +5256,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -5270,8 +5266,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
         <v>340</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -5852,7 +5848,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -6020,7 +6016,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -6146,7 +6142,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="16" t="s">
+      <c r="A276" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -6174,7 +6170,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="7" t="s">
         <v>426</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -6412,7 +6408,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="16" t="s">
+      <c r="A295" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -6538,7 +6534,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="7" t="s">
         <v>439</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -6706,7 +6702,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="7" t="s">
         <v>455</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -6930,7 +6926,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="7" t="s">
         <v>475</v>
       </c>
       <c r="C332" s="2" t="s">
@@ -7165,7 +7161,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="7" t="s">
         <v>496</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -7652,7 +7648,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="7" t="s">
         <v>540</v>
       </c>
       <c r="C384" s="2" t="s">
@@ -7665,7 +7661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>541</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>542</v>
       </c>
@@ -7691,6 +7687,148 @@
       </c>
       <c r="E386" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F49B2-54DB-498F-A3CB-4DD69EC221A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182B5A4-C17C-44F1-9431-56F2DE9F18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="563">
   <si>
     <t>company</t>
   </si>
@@ -1702,6 +1702,27 @@
   </si>
   <si>
     <t>Creathink Solutions</t>
+  </si>
+  <si>
+    <t>SevenSeven</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>IT-SPAC</t>
+  </si>
+  <si>
+    <t>dpingcas@77global.biz</t>
+  </si>
+  <si>
+    <t>atreyes@it-spac.com. </t>
+  </si>
+  <si>
+    <t>Technical Assessment</t>
+  </si>
+  <si>
+    <t>Encora</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1804,6 +1825,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2110,10 +2132,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J397"/>
+  <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D398" sqref="D398"/>
+      <selection activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7690,7 +7712,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="7" t="s">
         <v>467</v>
       </c>
       <c r="C387" s="2" t="s">
@@ -7814,7 +7836,7 @@
         <v>366</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>121</v>
@@ -7829,6 +7851,57 @@
       </c>
       <c r="D397" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7882,8 +7955,10 @@
     <hyperlink ref="G177" r:id="rId43" display="mailto:emacupang@gmail.com" xr:uid="{2ED56E74-9E8B-4C1F-80CF-B2224CF02624}"/>
     <hyperlink ref="G178" r:id="rId44" display="mailto:engelbert.acefortin@gmail.com" xr:uid="{25F2B952-2A6A-40BD-89B1-951CDCA3955D}"/>
     <hyperlink ref="A283" r:id="rId45" display="https://www.linkedin.com/company/cepatkreditfinancinginc/life" xr:uid="{C0ADB27E-2A05-4E5E-85C3-E0CE05D03424}"/>
+    <hyperlink ref="G398" r:id="rId46" display="mailto:dpingcas@77global.biz" xr:uid="{CA46BA22-3B86-4263-86CC-3D8D262564C5}"/>
+    <hyperlink ref="G397" r:id="rId47" display="mailto:atreyes@it-spac.com" xr:uid="{CBF9CD4C-08A2-4B9C-A939-1F0800C685BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId46"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId48"/>
 </worksheet>
 </file>
--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182B5A4-C17C-44F1-9431-56F2DE9F18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FD50E-D559-475F-BC35-90B5FFC30EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="590">
   <si>
     <t>company</t>
   </si>
@@ -1723,6 +1723,87 @@
   </si>
   <si>
     <t>Encora</t>
+  </si>
+  <si>
+    <t>Trinity Workforce Solutions Inc. (BGC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teradata Developer (Data Warehouse) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Professionals </t>
+  </si>
+  <si>
+    <t>Jr. Reports Analyst, Business Analyst</t>
+  </si>
+  <si>
+    <t>eric.m@trinitywfs.com</t>
+  </si>
+  <si>
+    <t>nlo@ipiphil.com</t>
+  </si>
+  <si>
+    <t>ECLARO</t>
+  </si>
+  <si>
+    <t>david.barros@eclaro.com</t>
+  </si>
+  <si>
+    <t>(+63)9178707826</t>
+  </si>
+  <si>
+    <t>Nityo Infotech</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>beverly.jimenez@nityo.com</t>
+  </si>
+  <si>
+    <t>Python Data Engineer</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>Associate Software Engineer</t>
+  </si>
+  <si>
+    <t>Peak6Group (Apex Fintech Solutions Philippines)</t>
+  </si>
+  <si>
+    <t>Software Engineer I</t>
+  </si>
+  <si>
+    <t>Erni Philippines</t>
+  </si>
+  <si>
+    <t>Application Developer</t>
+  </si>
+  <si>
+    <t>ABS Global Innovations (Ortigas)</t>
+  </si>
+  <si>
+    <t>Relx (BGC)</t>
+  </si>
+  <si>
+    <t>IPI (BGC)</t>
+  </si>
+  <si>
+    <t>Data Engineer I</t>
+  </si>
+  <si>
+    <t>Accenture (Taguig, night shift)</t>
+  </si>
+  <si>
+    <t>Reporting Associate (Data Analyst)</t>
+  </si>
+  <si>
+    <t>accenture.ctl@gmail.com</t>
+  </si>
+  <si>
+    <t>Copeland (Quezon)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1833,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,6 +1858,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1798,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1822,10 +1909,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2132,10 +2220,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J400"/>
+  <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E401" sqref="E401"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2951,10 +3039,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -3008,10 +3096,10 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -7855,7 +7943,7 @@
       <c r="E397" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G397" s="12" t="s">
+      <c r="G397" s="11" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7872,7 +7960,7 @@
       <c r="E398" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G398" s="12" t="s">
+      <c r="G398" s="11" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7902,6 +7990,216 @@
       </c>
       <c r="E400" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7957,8 +8255,11 @@
     <hyperlink ref="A283" r:id="rId45" display="https://www.linkedin.com/company/cepatkreditfinancinginc/life" xr:uid="{C0ADB27E-2A05-4E5E-85C3-E0CE05D03424}"/>
     <hyperlink ref="G398" r:id="rId46" display="mailto:dpingcas@77global.biz" xr:uid="{CA46BA22-3B86-4263-86CC-3D8D262564C5}"/>
     <hyperlink ref="G397" r:id="rId47" display="mailto:atreyes@it-spac.com" xr:uid="{CBF9CD4C-08A2-4B9C-A939-1F0800C685BC}"/>
+    <hyperlink ref="G402" r:id="rId48" xr:uid="{84FCA2FA-7E9F-49CE-B4DB-A0B1F84503A7}"/>
+    <hyperlink ref="G403" r:id="rId49" xr:uid="{CFFB233A-7E83-4669-AF30-7430B153100A}"/>
+    <hyperlink ref="G404" r:id="rId50" xr:uid="{4E5BF71E-0865-45F7-A2E6-85C20AA01642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId48"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FD50E-D559-475F-BC35-90B5FFC30EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38459E5D-25FB-493E-BC35-67277AA02214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
   <si>
     <t>company</t>
   </si>
@@ -1803,7 +1803,10 @@
     <t>accenture.ctl@gmail.com</t>
   </si>
   <si>
-    <t>Copeland (Quezon)</t>
+    <t>Ascendion</t>
+  </si>
+  <si>
+    <t>joan.anipan@ascendion.com</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +1913,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2220,10 +2223,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J415"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+    <sheetView tabSelected="1" topLeftCell="C404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F419" sqref="F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3039,10 +3042,10 @@
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -3096,10 +3099,10 @@
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -8178,7 +8181,7 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A414" s="13" t="s">
+      <c r="A414" s="12" t="s">
         <v>586</v>
       </c>
       <c r="C414" s="2" t="s">
@@ -8196,10 +8199,21 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>67</v>
+      <c r="C416" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38459E5D-25FB-493E-BC35-67277AA02214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1E4EAD-DB90-402F-844E-3D94F4C1B226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="595">
   <si>
     <t>company</t>
   </si>
@@ -1807,6 +1807,18 @@
   </si>
   <si>
     <t>joan.anipan@ascendion.com</t>
+  </si>
+  <si>
+    <t>Kafka Data Engineer</t>
+  </si>
+  <si>
+    <t>Referred</t>
+  </si>
+  <si>
+    <t>Networked</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase Bank,</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2235,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J416"/>
+  <dimension ref="A1:J419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F419" sqref="F419"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E421" sqref="E421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8214,6 +8226,45 @@
       </c>
       <c r="G416" s="2" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1E4EAD-DB90-402F-844E-3D94F4C1B226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775E2593-2D37-44AE-BCF1-E9035D2198B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="598">
   <si>
     <t>company</t>
   </si>
@@ -1734,9 +1734,6 @@
     <t xml:space="preserve">Information Professionals </t>
   </si>
   <si>
-    <t>Jr. Reports Analyst, Business Analyst</t>
-  </si>
-  <si>
     <t>eric.m@trinitywfs.com</t>
   </si>
   <si>
@@ -1819,6 +1816,18 @@
   </si>
   <si>
     <t>JPMorgan Chase Bank,</t>
+  </si>
+  <si>
+    <t>CV Downloaded</t>
+  </si>
+  <si>
+    <t>To Be Interviewed</t>
+  </si>
+  <si>
+    <t>Jr. Reports Analyst</t>
+  </si>
+  <si>
+    <t>HR Interviewed</t>
   </si>
 </sst>
 </file>
@@ -2237,8 +2246,8 @@
   </sheetPr>
   <dimension ref="A1:J419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E421" sqref="E421"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8009,7 +8018,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -8029,7 +8038,7 @@
         <v>121</v>
       </c>
       <c r="G402" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -8037,18 +8046,21 @@
         <v>565</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>566</v>
+        <v>596</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G403" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>124</v>
@@ -8057,27 +8069,27 @@
         <v>121</v>
       </c>
       <c r="G404" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="H404" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="H404" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E405" s="2" t="s">
+      <c r="G405" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -8088,7 +8100,7 @@
         <v>67</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>11</v>
+        <v>594</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>121</v>
@@ -8099,7 +8111,7 @@
         <v>530</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>11</v>
@@ -8110,10 +8122,10 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>11</v>
@@ -8124,10 +8136,10 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>11</v>
@@ -8138,10 +8150,10 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>11</v>
@@ -8152,7 +8164,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>533</v>
@@ -8166,13 +8178,13 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>11</v>
+        <v>595</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>121</v>
@@ -8180,7 +8192,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>70</v>
@@ -8194,19 +8206,19 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="D414" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G414" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -8216,16 +8228,22 @@
       <c r="C415" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D415" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G416" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -8233,10 +8251,10 @@
         <v>168</v>
       </c>
       <c r="C417" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -8247,7 +8265,7 @@
         <v>67</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>121</v>
@@ -8255,7 +8273,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>223</v>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775E2593-2D37-44AE-BCF1-E9035D2198B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A34EA3-E7C8-4543-83B8-61596D9C925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="604">
   <si>
     <t>company</t>
   </si>
@@ -1828,6 +1828,24 @@
   </si>
   <si>
     <t>HR Interviewed</t>
+  </si>
+  <si>
+    <t>Dynamic Technology Lab</t>
+  </si>
+  <si>
+    <t>Jr. Reporting Analyst</t>
+  </si>
+  <si>
+    <t>Atlantis Consulting</t>
+  </si>
+  <si>
+    <t>Implementation Engineer (FinTech)</t>
+  </si>
+  <si>
+    <t>Interviewed</t>
+  </si>
+  <si>
+    <t>Cloud Employee</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2262,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J419"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E426" sqref="E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8156,7 +8174,7 @@
         <v>580</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>121</v>
@@ -8195,10 +8213,10 @@
         <v>583</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>70</v>
+        <v>599</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>121</v>
@@ -8279,10 +8297,91 @@
         <v>223</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A34EA3-E7C8-4543-83B8-61596D9C925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B06572-60D1-4986-B00D-45CF4A885DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="606">
   <si>
     <t>company</t>
   </si>
@@ -1846,6 +1846,12 @@
   </si>
   <si>
     <t>Cloud Employee</t>
+  </si>
+  <si>
+    <t>IBM (UP Techno hub)</t>
+  </si>
+  <si>
+    <t>ACEN shared services (makati)</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2268,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J425"/>
+  <dimension ref="A1:J429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E426" sqref="E426"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8381,6 +8387,62 @@
         <v>592</v>
       </c>
       <c r="E425" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429" s="2" t="s">
         <v>121</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B06572-60D1-4986-B00D-45CF4A885DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214B8C76-DA37-4413-B633-3AA9990C54BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="609">
   <si>
     <t>company</t>
   </si>
@@ -1821,9 +1821,6 @@
     <t>CV Downloaded</t>
   </si>
   <si>
-    <t>To Be Interviewed</t>
-  </si>
-  <si>
     <t>Jr. Reports Analyst</t>
   </si>
   <si>
@@ -1852,6 +1849,18 @@
   </si>
   <si>
     <t>ACEN shared services (makati)</t>
+  </si>
+  <si>
+    <t>IntouchCX</t>
+  </si>
+  <si>
+    <t>ETL Develoer</t>
+  </si>
+  <si>
+    <t>Contacted via Recruiter</t>
+  </si>
+  <si>
+    <t>To Be Interviewed (Nov 3)</t>
   </si>
 </sst>
 </file>
@@ -2268,10 +2277,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J429"/>
+  <dimension ref="A1:J430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A405" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429"/>
+      <selection activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8070,10 +8079,10 @@
         <v>565</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D403" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>121</v>
@@ -8208,7 +8217,7 @@
         <v>584</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>121</v>
@@ -8219,7 +8228,7 @@
         <v>583</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>561</v>
@@ -8311,7 +8320,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>67</v>
@@ -8336,13 +8345,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="D422" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>121</v>
@@ -8378,7 +8387,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>551</v>
@@ -8398,7 +8407,7 @@
         <v>70</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>572</v>
@@ -8406,13 +8415,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>121</v>
@@ -8420,7 +8429,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>67</v>
@@ -8444,6 +8453,17 @@
       </c>
       <c r="E429" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214B8C76-DA37-4413-B633-3AA9990C54BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2B204-5428-444B-98DD-2B9C3B0F433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="610">
   <si>
     <t>company</t>
   </si>
@@ -1861,6 +1861,9 @@
   </si>
   <si>
     <t>To Be Interviewed (Nov 3)</t>
+  </si>
+  <si>
+    <t>Technical Assessment (Nov 7)</t>
   </si>
 </sst>
 </file>
@@ -2277,10 +2280,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J430"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D412" sqref="D412"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8231,7 +8234,7 @@
         <v>598</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>121</v>
@@ -8464,6 +8467,51 @@
       </c>
       <c r="D430" s="2" t="s">
         <v>607</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2B204-5428-444B-98DD-2B9C3B0F433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAA14F5-AF4D-4533-9823-A094D5DED81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="609">
   <si>
     <t>company</t>
   </si>
@@ -1858,9 +1858,6 @@
   </si>
   <si>
     <t>Contacted via Recruiter</t>
-  </si>
-  <si>
-    <t>To Be Interviewed (Nov 3)</t>
   </si>
   <si>
     <t>Technical Assessment (Nov 7)</t>
@@ -2282,8 +2279,8 @@
   </sheetPr>
   <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8220,7 +8217,7 @@
         <v>584</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>121</v>
@@ -8234,7 +8231,7 @@
         <v>598</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>121</v>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAA14F5-AF4D-4533-9823-A094D5DED81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94959D9-C3C8-480B-A671-057C474E57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="610">
   <si>
     <t>company</t>
   </si>
@@ -1861,6 +1861,9 @@
   </si>
   <si>
     <t>Technical Assessment (Nov 7)</t>
+  </si>
+  <si>
+    <t>Xurpass Enterprises, Inc.</t>
   </si>
 </sst>
 </file>
@@ -2277,10 +2280,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J433"/>
+  <dimension ref="A1:J434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D412" sqref="D412"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8508,6 +8511,20 @@
         <v>592</v>
       </c>
       <c r="E433" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" s="2" t="s">
         <v>121</v>
       </c>
     </row>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94959D9-C3C8-480B-A671-057C474E57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC092A3A-8C46-4F9B-BAFB-FA18BC85B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="612">
   <si>
     <t>company</t>
   </si>
@@ -1864,6 +1864,12 @@
   </si>
   <si>
     <t>Xurpass Enterprises, Inc.</t>
+  </si>
+  <si>
+    <t>Data Engineer/Insights Analyst/Data Analyst</t>
+  </si>
+  <si>
+    <t>clairelarzen.tello@gcash.com</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2286,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J434"/>
+  <dimension ref="A1:J435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A413" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A435" sqref="A435"/>
@@ -8410,7 +8416,7 @@
         <v>70</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>601</v>
+        <v>25</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>572</v>
@@ -8480,7 +8486,7 @@
         <v>67</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>121</v>
@@ -8494,13 +8500,13 @@
         <v>551</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>549</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>609</v>
       </c>
@@ -8526,6 +8532,23 @@
       </c>
       <c r="E434" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/documents/job-applications.xlsx
+++ b/documents/job-applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARRY\Documents\Scripts\auto-job-app-sender\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC092A3A-8C46-4F9B-BAFB-FA18BC85B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42B70E-F78B-4A8E-A5AE-07B6E5299FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="613">
   <si>
     <t>company</t>
   </si>
@@ -1870,6 +1870,9 @@
   </si>
   <si>
     <t>clairelarzen.tello@gcash.com</t>
+  </si>
+  <si>
+    <t>ISupportWorldwide (Remote, mid)</t>
   </si>
 </sst>
 </file>
@@ -2286,10 +2289,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J435"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A413" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435"/>
+      <selection activeCell="D436" sqref="D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8444,7 +8447,7 @@
         <v>67</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>121</v>
@@ -8549,6 +8552,20 @@
       </c>
       <c r="G435" s="2" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
